--- a/cmd/fet2xlsx/test1_data_and_timetable_students.xlsx
+++ b/cmd/fet2xlsx/test1_data_and_timetable_students.xlsx
@@ -249,7 +249,7 @@
     <t>HU</t>
   </si>
   <si>
-    <t>AE,AG,AR,BB,BW,KK,LN,MB,MRL,RL,SST,TU,VP</t>
+    <t>BB,MB,AE,AG,KK,RL,LN,VP,MRL,AR,SST,TU,BW</t>
   </si>
   <si>
     <t>ch,k10,k10K,k11,k11K,k12,k12K,k8,k9,k9K,ph,zf2</t>
@@ -264,7 +264,7 @@
     <t>ZwEp</t>
   </si>
   <si>
-    <t>AG,CG,KK,MR,US</t>
+    <t>CG,AG,KK,MR,US</t>
   </si>
   <si>
     <t>bb,ch,k11,ku,st</t>
@@ -291,7 +291,7 @@
     <t>Rl</t>
   </si>
   <si>
-    <t>AS,CF</t>
+    <t>CF,AS</t>
   </si>
   <si>
     <t>k4,k4K</t>
@@ -375,7 +375,7 @@
     <t>eKK</t>
   </si>
   <si>
-    <t>CWL,VT</t>
+    <t>VT,CWL</t>
   </si>
   <si>
     <t>k1</t>
@@ -450,7 +450,7 @@
     <t>Ml</t>
   </si>
   <si>
-    <t>MN,NE</t>
+    <t>NE,MN</t>
   </si>
   <si>
     <t>CF</t>
@@ -483,10 +483,10 @@
     <t>or</t>
   </si>
   <si>
-    <t>MS,SA</t>
-  </si>
-  <si>
-    <t>AR,RL</t>
+    <t>SA,MS</t>
+  </si>
+  <si>
+    <t>RL,AR</t>
   </si>
   <si>
     <t>k11K</t>
@@ -585,7 +585,7 @@
     <t>KP</t>
   </si>
   <si>
-    <t>JW,ML,SN</t>
+    <t>ML,SN,JW</t>
   </si>
   <si>
     <t>gb,haML,wk1</t>
@@ -606,7 +606,7 @@
     <t>Chr</t>
   </si>
   <si>
-    <t>HO,IB,LN</t>
+    <t>IB,LN,HO</t>
   </si>
   <si>
     <t>eUS,mM,or</t>
@@ -651,13 +651,13 @@
     <t>mM,mOS,or</t>
   </si>
   <si>
-    <t>AR,UO</t>
+    <t>UO,AR</t>
   </si>
   <si>
     <t>MB,SST</t>
   </si>
   <si>
-    <t>BW,LM</t>
+    <t>LM,BW</t>
   </si>
   <si>
     <t>MD</t>
@@ -669,7 +669,7 @@
     <t>GM</t>
   </si>
   <si>
-    <t>AG,MF</t>
+    <t>MF,AG</t>
   </si>
   <si>
     <t>k11,k11K,zf2</t>
@@ -684,7 +684,7 @@
     <t>OrFl</t>
   </si>
   <si>
-    <t>ASR,HF</t>
+    <t>HF,ASR</t>
   </si>
   <si>
     <t>AG,ML</t>
@@ -711,7 +711,7 @@
     <t>k6,k6K</t>
   </si>
   <si>
-    <t>ASR,WS</t>
+    <t>WS,ASR</t>
   </si>
   <si>
     <t>BB</t>
@@ -747,7 +747,7 @@
     <t>BBF,CWL</t>
   </si>
   <si>
-    <t>LS,SKD</t>
+    <t>SKD,LS</t>
   </si>
   <si>
     <t>TR</t>
@@ -783,19 +783,19 @@
     <t>k10,k10K,zf2</t>
   </si>
   <si>
-    <t>ASR,MP,NE</t>
-  </si>
-  <si>
-    <t>BB,SA</t>
-  </si>
-  <si>
-    <t>AS,HO</t>
+    <t>NE,MP,ASR</t>
+  </si>
+  <si>
+    <t>SA,BB</t>
+  </si>
+  <si>
+    <t>HO,AS</t>
   </si>
   <si>
     <t>k3,k3K</t>
   </si>
   <si>
-    <t>AH,AS,CH</t>
+    <t>AH,CH,AS</t>
   </si>
   <si>
     <t>hoAS,k7,k7K</t>
@@ -813,7 +813,7 @@
     <t>KoFl</t>
   </si>
   <si>
-    <t>IV,MF</t>
+    <t>MF,IV</t>
   </si>
   <si>
     <t>CH</t>
@@ -822,13 +822,13 @@
     <t>k9,k9K,zf2</t>
   </si>
   <si>
-    <t>CG,JW,SN</t>
+    <t>CG,SN,JW</t>
   </si>
   <si>
     <t>gb,haCG,wk1</t>
   </si>
   <si>
-    <t>AH,AS,CF</t>
+    <t>CF,AH,AS</t>
   </si>
   <si>
     <t>hoAS,k1,k1K</t>
@@ -837,13 +837,13 @@
     <t>Ad</t>
   </si>
   <si>
-    <t>AFM,TU,WS</t>
+    <t>AFM,WS,TU</t>
   </si>
   <si>
     <t>OrFlCh</t>
   </si>
   <si>
-    <t>AK,ASR,IB,MD</t>
+    <t>IB,MD,AK,ASR</t>
   </si>
   <si>
     <t>eOS,eUS,or</t>
